--- a/PRMS_TestData.xlsx
+++ b/PRMS_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedantk\Desktop\RPA_Project\PRMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\RPA_Demo_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Client ID</t>
   </si>
@@ -238,7 +238,7 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Test Automation1</t>
+    <t>Test Automation56</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +734,9 @@
       <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">

--- a/PRMS_TestData.xlsx
+++ b/PRMS_TestData.xlsx
@@ -232,13 +232,13 @@
     <t>Not Active</t>
   </si>
   <si>
-    <t>Chris-1185</t>
-  </si>
-  <si>
     <t>Karnataka</t>
   </si>
   <si>
     <t>Test Automation56</t>
+  </si>
+  <si>
+    <t>TestCl-1688</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>24</v>
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>18</v>
@@ -743,7 +743,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PRMS_TestData.xlsx
+++ b/PRMS_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\RPA_Demo_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\UiPath_Project\RPA_Demo_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PRMS_TestData.xlsx
+++ b/PRMS_TestData.xlsx
@@ -223,22 +223,22 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Suntechnologies_Test</t>
-  </si>
-  <si>
-    <t>Suntec-1</t>
-  </si>
-  <si>
     <t>Not Active</t>
   </si>
   <si>
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Test Automation56</t>
-  </si>
-  <si>
-    <t>TestCl-1688</t>
+    <t>Suntechnologies_Demo</t>
+  </si>
+  <si>
+    <t>Test Automation2354</t>
+  </si>
+  <si>
+    <t>Suntec-1588</t>
+  </si>
+  <si>
+    <t>TestAu-1730</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -697,10 +697,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
@@ -726,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>18</v>

--- a/PRMS_TestData.xlsx
+++ b/PRMS_TestData.xlsx
@@ -229,16 +229,16 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Suntechnologies_Demo</t>
-  </si>
-  <si>
-    <t>Test Automation2354</t>
-  </si>
-  <si>
-    <t>Suntec-1588</t>
-  </si>
-  <si>
-    <t>TestAu-1730</t>
+    <t>Suntech_Demo</t>
+  </si>
+  <si>
+    <t>TestAutomationPRMS</t>
+  </si>
+  <si>
+    <t>TestCl-1683</t>
+  </si>
+  <si>
+    <t>TestAu-1750</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PRMS_TestData.xlsx
+++ b/PRMS_TestData.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Client ID</t>
   </si>
@@ -229,16 +229,19 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Suntech_Demo</t>
-  </si>
-  <si>
-    <t>TestAutomationPRMS</t>
-  </si>
-  <si>
-    <t>TestCl-1683</t>
-  </si>
-  <si>
-    <t>TestAu-1750</t>
+    <t>Suntec-9</t>
+  </si>
+  <si>
+    <t>Suntech_Client1</t>
+  </si>
+  <si>
+    <t>RPAAutomation_Test</t>
+  </si>
+  <si>
+    <t>Suntec-106</t>
+  </si>
+  <si>
+    <t>RPAAut-108</t>
   </si>
 </sst>
 </file>
@@ -603,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -697,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>22</v>
@@ -726,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -744,6 +747,14 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
